--- a/gene_tables_for_carmen.xlsx
+++ b/gene_tables_for_carmen.xlsx
@@ -460,16 +460,6 @@
       <c r="C3">
         <v>104403310</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>TMEM180,ACTR1A,SUFU</t>
@@ -506,11 +496,6 @@
           <t>XPNPEP1,MXI1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>CD</t>
@@ -532,21 +517,6 @@
       <c r="C5">
         <v>126551228</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>FAM53B,METTL10,FAM175B</t>
@@ -573,21 +543,6 @@
       <c r="C6">
         <v>133172119</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>CD</t>
@@ -609,26 +564,6 @@
       <c r="C7">
         <v>27182592</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>UC</t>
@@ -994,16 +929,6 @@
       <c r="C17">
         <v>101587145</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>EXTL2,SLC30A7,DPH5,LOC102606465</t>
@@ -1107,16 +1032,6 @@
       <c r="C20">
         <v>118990000</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>PHLDB1,MIR6716,TREH,DDX6,CXCR5,BCL9L,MIR4492,UPK2,FOXR1,CCDC84,RPL23AP64,RPS25,TRAPPC4,MIR3656,SLC37A4,HYOU1,VPS11,HMBS,H2AFX,DPAGT1,C2CD2L</t>
@@ -1179,16 +1094,6 @@
       <c r="C22">
         <v>114550000</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>MAGI3,PHTF1,RSBN1,PTPN22,AP4B1-AS1,BCL2L15,AP4B1,DCLRE1B,LOC101928846,HIPK1,OLFML3</t>
@@ -1410,16 +1315,6 @@
       <c r="C28">
         <v>57209488</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>SLC43A3</t>
@@ -1482,21 +1377,6 @@
       <c r="C30">
         <v>159799910</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>SLAMF8</t>
@@ -1779,16 +1659,6 @@
       <c r="C37">
         <v>169733566</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>ATP1B1,NME7,BLZF1,CCDC181,SLC19A2,F5,SELP,SELL,SELE</t>
@@ -1851,21 +1721,6 @@
       <c r="C39">
         <v>72863697</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>CD</t>
@@ -1959,16 +1814,6 @@
       <c r="C42">
         <v>186967702</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>PLA2G4A</t>
@@ -1995,16 +1840,6 @@
       <c r="C43">
         <v>87370000</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>TMEM135</t>
@@ -2031,21 +1866,6 @@
       <c r="C44">
         <v>191795390</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>CD</t>
@@ -2144,16 +1964,6 @@
       <c r="C47">
         <v>198730097</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>PTPRC</t>
@@ -2331,12 +2141,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NA,IRF6,RP3-434O14.8</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>IRF6,RP3-434O14.8</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2956,16 +2761,6 @@
       <c r="C69">
         <v>41771476</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>ELF1,WBP4,KBTBD6,LOC101929140,KBTBD7</t>
@@ -2994,17 +2789,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>AKAP11,NA</t>
+          <t>AKAP11</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>AKAP11</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>NA</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3043,11 +2833,6 @@
           <t>TNFSF11,AKAP11,ANKRD55</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>CD</t>
@@ -3110,16 +2895,6 @@
       <c r="C73">
         <v>49821244</v>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>FNDC3A,MLNR</t>
@@ -3680,16 +3455,6 @@
       <c r="C88">
         <v>62124388</v>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>NFIA,LOC645030,MGC34796</t>
@@ -3798,16 +3563,6 @@
       <c r="C91">
         <v>63202258</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>USP1,DOCK7,ANGPTL3</t>
@@ -3875,16 +3630,6 @@
       <c r="C93">
         <v>51000000</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>ADCY7,MIR6771,BRD7,NKD1,SNX20,LOC101927272,NOD2,CYLD</t>
@@ -4041,17 +3786,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PLCG2,NA</t>
+          <t>PLCG2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>PLCG2</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>NA</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4085,21 +3825,6 @@
       <c r="C98">
         <v>82916401</v>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G98" t="inlineStr">
         <is>
           <t>CDH13</t>
@@ -4162,16 +3887,6 @@
       <c r="C100">
         <v>71240000</v>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>ANKRD13C,HHLA3,CTH</t>
@@ -4352,16 +4067,6 @@
       <c r="C105">
         <v>54949047</v>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G105" t="inlineStr">
         <is>
           <t>C17orf67,DGKE</t>
@@ -4573,16 +4278,6 @@
       <c r="C111">
         <v>78870000</v>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G111" t="inlineStr">
         <is>
           <t>NEXN-AS1,NEXN,FUBP1,DNAJB4,GIPC2,MGC27382</t>
@@ -4681,16 +4376,6 @@
       <c r="C114">
         <v>42365242</v>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G114" t="inlineStr">
         <is>
           <t>SETBP1</t>
@@ -4717,16 +4402,6 @@
       <c r="C115">
         <v>46640000</v>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G115" t="inlineStr">
         <is>
           <t>CTIF,MIR4743,SMAD7,DYM,MIR4744</t>
@@ -4753,21 +4428,6 @@
       <c r="C116">
         <v>56883319</v>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I116" t="inlineStr">
         <is>
           <t>CD</t>
@@ -4791,12 +4451,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NA,CD226</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>CD226</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5325,12 +4980,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NA,PROCR,UQCC,CEP250</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>PROCR,UQCC,CEP250</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5585,21 +5235,6 @@
       <c r="C138">
         <v>6095344</v>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G138" t="inlineStr">
         <is>
           <t>FERMT1</t>
@@ -5754,11 +5389,6 @@
           <t>NRIP1,MAP1LC3A,TP53INP1,TNFRSF13B,TNK1</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I142" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -5929,16 +5559,6 @@
       <c r="C147">
         <v>160879971</v>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G147" t="inlineStr">
         <is>
           <t>LY75-CD302,LY75,PLA2R1</t>
@@ -6008,12 +5628,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NA,ITGA4,CERKL</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ITGA4,CERKL</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6052,21 +5667,6 @@
       <c r="C150">
         <v>187684426</v>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G150" t="inlineStr">
         <is>
           <t>ITGAV,FAM171B</t>
@@ -6131,12 +5731,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NA,RFTN2,PLCL1</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>RFTN2,PLCL1</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6334,11 +5929,6 @@
           <t>CCL20</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I157" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -6375,11 +5965,6 @@
           <t>CCL20</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I158" t="inlineStr">
         <is>
           <t>UC</t>
@@ -6536,12 +6121,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NA,TOM1</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>TOM1</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6726,12 +6306,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>NA,BOK</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BOK</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6986,21 +6561,6 @@
       <c r="C174">
         <v>5693857</v>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I174" t="inlineStr">
         <is>
           <t>CD</t>
@@ -7171,21 +6731,6 @@
       <c r="C179">
         <v>101270494</v>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G179" t="inlineStr">
         <is>
           <t>IMPG2,SENP7,FAM172BP</t>
@@ -7212,16 +6757,6 @@
       <c r="C180">
         <v>101576029</v>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G180" t="inlineStr">
         <is>
           <t>NFKBIZ</t>
@@ -7294,11 +6829,6 @@
           <t>SATB1,TBC1D5,IL2RB,PRR5L,ERBB2,LDB2,LINGO2,PRF1,SH2D1B,CD247,OSBPL5,ADAMTS1</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I182" t="inlineStr">
         <is>
           <t>CD</t>
@@ -7320,21 +6850,6 @@
       <c r="C183">
         <v>188404669</v>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G183" t="inlineStr">
         <is>
           <t>LPP</t>
@@ -7484,21 +6999,6 @@
       <c r="C187">
         <v>71191350</v>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G187" t="inlineStr">
         <is>
           <t>FOXP1</t>
@@ -7566,16 +7066,6 @@
       <c r="C189">
         <v>106271522</v>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G189" t="inlineStr">
         <is>
           <t>TET2</t>
@@ -7638,21 +7128,6 @@
       <c r="C191">
         <v>26132361</v>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I191" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -7720,11 +7195,6 @@
           <t>AC021860.1,CLEC4G,KIAA1239,C4orf19</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I193" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -7746,26 +7216,6 @@
       <c r="C194">
         <v>38588453</v>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I194" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -7869,16 +7319,6 @@
       <c r="C197">
         <v>101978963</v>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G197" t="inlineStr">
         <is>
           <t>SLCO4C1,SLCO6A1,LINC00492,LINC00491</t>
@@ -7956,11 +7396,6 @@
           <t>CDC42SE2,LYRM7,CHSY3,HINT1</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I199" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -8102,17 +7537,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>CAMK2A,SLC6A7,NDST1,NA</t>
+          <t>CAMK2A,SLC6A7,NDST1</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>CAMK2A,SLC6A7,NDST1</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>NA</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8254,16 +7684,6 @@
       <c r="C207">
         <v>172324978</v>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G207" t="inlineStr">
         <is>
           <t>ERGIC1</t>
@@ -8292,12 +7712,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>NA,CPEB4</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>CPEB4</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8408,16 +7823,6 @@
       <c r="C211">
         <v>35924748</v>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G211" t="inlineStr">
         <is>
           <t>IL7R,CAPSL</t>
@@ -8562,11 +7967,6 @@
           <t>PTCD2,TMEM171</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I215" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -8747,16 +8147,6 @@
       <c r="C220">
         <v>116818887</v>
       </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G220" t="inlineStr">
         <is>
           <t>FAM26F,TRAPPC3L</t>
@@ -8963,21 +8353,6 @@
       <c r="C226">
         <v>14960000</v>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I226" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -9112,26 +8487,6 @@
       <c r="C230">
         <v>19825913</v>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I230" t="inlineStr">
         <is>
           <t>UC</t>
@@ -9263,12 +8618,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>NA,HLA-C,PSORS1C1,HLA-DRB1,HLA-DQA1,HLA-DQB1</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>HLA-C,PSORS1C1,HLA-DRB1,HLA-DQA1,HLA-DQB1</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -9302,16 +8652,6 @@
       <c r="C235">
         <v>3445671</v>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G235" t="inlineStr">
         <is>
           <t>SLC22A23</t>
@@ -9338,21 +8678,6 @@
       <c r="C236">
         <v>391623</v>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I236" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -9374,21 +8699,6 @@
       <c r="C237">
         <v>42008203</v>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G237" t="inlineStr">
         <is>
           <t>CCND3</t>
@@ -9415,21 +8725,6 @@
       <c r="C238">
         <v>43801582</v>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I238" t="inlineStr">
         <is>
           <t>UC</t>
@@ -9564,16 +8859,6 @@
       <c r="C242">
         <v>117140000</v>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G242" t="inlineStr">
         <is>
           <t>ST7,MIR6132,ST7-AS2,ST7-OT3,WNT2,ASZ1,CFTR</t>
@@ -9651,11 +8936,6 @@
           <t>CUL1</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I244" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -9679,12 +8959,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>NA,CUL1</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>CUL1</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -9756,22 +9031,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>NA,ITGB8</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ITGB8</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
           <t>ITGB8</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>NA</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -10190,11 +9455,6 @@
           <t>AXIN2</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I258" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -10298,11 +9558,6 @@
           <t>EFCAB1,UBE2V2</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I261" t="inlineStr">
         <is>
           <t>IBD</t>
@@ -10324,16 +9579,6 @@
       <c r="C262">
         <v>74013420</v>
       </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G262" t="inlineStr">
         <is>
           <t>SBSPON</t>
@@ -10360,16 +9605,6 @@
       <c r="C263">
         <v>91120000</v>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G263" t="inlineStr">
         <is>
           <t>RIPK2,OSGIN2,NBN,DECR1,CALB1</t>
@@ -10396,16 +9631,6 @@
       <c r="C264">
         <v>102632235</v>
       </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="G264" t="inlineStr">
         <is>
           <t>LOC101928438,NR4A3</t>
@@ -10472,16 +9697,6 @@
       </c>
       <c r="C266">
         <v>120475602</v>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>

--- a/gene_tables_for_carmen.xlsx
+++ b/gene_tables_for_carmen.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J271"/>
+  <dimension ref="A1:K271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +408,11 @@
           <t>novel_or_known</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>genes_our_suggestion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -449,6 +454,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>GOT1,HPSE2,CWF19L1,CNNM1,NKX2-3,ABCC2,DSC2,PRDM5,CCDC50,HOXB2,MB21D2,HOXC4,TSHZ3,ZFP37,HOXB4,DNMBP,NSF,SLC25A28,PKD2L1,COX15,CUTC</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -475,6 +485,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>TMEM180,ACTR1A,SUFU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -506,6 +521,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>XPNPEP1,MXI1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -532,6 +552,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>FAM53B,METTL10,FAM175B</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -610,6 +635,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>MAP3K8,MTPAP,MX1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -651,6 +681,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>CREM,CUL2,CCNY,PARD3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -692,6 +727,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>IL2RA</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -733,6 +773,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>CISD1,UBE2D1,IPMK,TFAM</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -769,6 +814,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ADO,NRBF2,REEP3,ZNF365,EGR2,RTKN2</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -805,6 +855,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PLAU,ECD,FAM149B1,TTC18,NUDT13,NDST2,FUT11,CAMK2G,C10orf55,AGAP5,SEC24C,ZSWIM8,SYNPO2L,MYOZ1,ADK,AP3M1,VCL,ANXA7</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -841,6 +896,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ZMIZ1,PPIF,ZCCHC24,FOXP3,NCALD,CD160,PPM1L,CTLA4,SGSM1,LDB2,HOPX,COLQ,CHN2,RNF165,KLRF1,PRNP,SH2D1B,PLAC9,ETS1,XCL1,ATP6V0E1,NRXN2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -882,6 +942,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>TSPAN14,ANXA11,FAM213A,PLAC9,DYDC2,MAT1A,AL359195.1,SFTPD,SH2D4B,C10orf58</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -918,6 +983,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>HHEX,BTAF1,MYOF,EXOC6,MARCH5,IDE,KIF11,TNKS2,CD38,CCL3,ARAP2,TTC38,LAG3,MLC1,GZMH,NDFIP2,NCALD,KCTD10,HDDC2,RTKN,QPCT,IVNS1ABP,CD160,B4GALT6,ALOX5AP,SPRY2,ESD,USP3,RNF165,ERBB2,FEZ1,KLRF1,PRSS23,SERP2,SPON2,IGFBP7,EOMES,CLEC4E,CLEC4D,CD3D,CLIC3,LDB2,ITGAM,LGALS9B,KRT86,HOPX,CXXC5,HOXB2,LINGO2,GK5,ZNF683,MEX3C,PRF1,SLC26A11,TMEM173,GSAP,FAM150B,WDSUB1,KIF19,SPTSSB,TLE1,DTHD1,KIAA1671,SH2D1B,COLGALT2,VIT,CEBPD,TNFRSF13B,P2RY11,FRA10AC1,FGFBP3,PXN,IL2RB,CD2,ADAM19,TNFRSF11A,ADAMTS1,TGFA,TCF7</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -944,6 +1014,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>EXTL2,SLC30A7,DPH5,LOC102606465</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -985,6 +1060,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NXPE1</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1021,6 +1101,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>TMPRSS13,IL10RA</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1047,6 +1132,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>PHLDB1,MIR6716,TREH,DDX6,CXCR5,BCL9L,MIR4492,UPK2,FOXR1,CCDC84,RPL23AP64,RPS25,TRAPPC4,MIR3656,SLC37A4,HYOU1,VPS11,HMBS,H2AFX,DPAGT1,C2CD2L</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1083,6 +1173,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ETS1,GZMK,VIPR1,ANK3,TTC16,KRT72,ZNF683,TIGIT,DTHD1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1114,6 +1209,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>PTPN22</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1150,6 +1250,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>SOX6</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1191,6 +1296,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>LSP1,CTSD,TNNT3,TNNI2,C11orf89,MRPL23,PTPN7,GPBAR1,RP11-295K3.1</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1227,6 +1337,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>REG4,NOTCH2,PARP8,SLC38A11</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1263,6 +1378,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>MRPL9,CTSK,THEM4,BNIPL,TDRKH,LINGO4,OAZ3,SNX27,RIIAD1,TUFT1,HRNR,ZNF687,THEM5,PIP5K1A,LCE1C,CDC42SE1,C2CD4D,PSMD4,RORC,S100A10,ELOVL4,CRCT1</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1304,6 +1424,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>THBS3,EFNA1,DAP3,ADAM15,EFNA3,YY1AP1,KRTCAP2,MTX1,GBA,DPM3,MUC1,FDPS,SCAMP3,HCN3,SLC50A1,RIT1,SSR2,TPM3,SYT11,TRIM46,FAM189B,ASH1L,UBAP2L,EFNA4,PYGO2,DCST2,MSTO1,RUSC1,UBQLN4,SEMA4A,HIST1H3H,ARHGEF2,HIST1H2BD,PKLR,RAB25,SKI,KCNN3,HIST1H2AE,HIST1H2BH,PMVK,C1orf85,GON4L,SLC25A44,BCAN,LMNA,PAQR6,LAMTOR2,SMG5</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1330,6 +1455,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>SLC43A3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1366,6 +1496,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>LPXN,SERPING1,MED19,ZFP91,ZDHHC5,TMX2,SOX15,ARNTL,FZD2,RPS6KL1,ZFP91-CNTF,GLYATL1,CNTF,AP001350.1,OR10Q1</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1397,6 +1532,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>SLAMF8</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1438,6 +1578,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>CD6</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -1479,6 +1624,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>FCRL6,SLAMF7,CD48,CD244,LY9,TOMM40L,ITLN1,F11R,USF1,PPOX,KLHDC9,NIT1,DUSP12,FCER1G,TSTD1,ITLN2,IGSF9,ATF6,RP11-544M22.13,PFDN2,NDUFS2,ARHGAP30</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1525,6 +1675,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>FCGR2A</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -1566,6 +1721,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>TMEM258,FADS2,FADS1,FADS3,MYRF,BEST1,FTH1,SREBF1,FDFT1,SCD,CACNA1I,SQLE,ALDOC,HMGCS1,DHCR24,CD164,ABCG1,ABCA1,PRKCB,INSIG1,PARVB,SREBF2,FEN1,DAGLA,B3GAT3,TMEM132A,SMOX,ACACA,PANX2,C11orf9</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -1607,6 +1767,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>BAD,PRDX5,FLRT1,FERMT3,RPS6KA4,CCDC88B,TRMT112,GPR137,PPP1R14B,PLA2G16,TRPT1,VEGFB,DNAJC4,PLCB3,FKBP2,AP003774.4,ESRRA,NAALADL1,SNX15,TEX40,NRXN2,NUDT22,OLFM4</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -1648,6 +1813,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>CTSW,SNX32,CAPN1,SNX15,LTBP3,FIBP,EFEMP2,MUS81,CFL1,RNASEH2C,MAP3K11,CTSF,RIN1,BANF1,SPDYC,SIPA1,AP5B1,AP003068.23,KAT5,EIF1AD,OVOL1,AP000769.1</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -1674,6 +1844,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ATP1B1,NME7,BLZF1,CCDC181,SLC19A2,F5,SELP,SELL,SELE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -1710,6 +1885,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>FASLG,TNFSF18,KLHL20,TNFSF4</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -1767,6 +1947,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>LRRC32,C11orf30,RP11-111M22.2,MAP6,USP13,CLC,CALR,MYO7A,OLIG2,GTSCR1,GPR160,NELL2,DACH1,WNT11</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -1803,6 +1988,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>STK33,TRIM66,AKIP1,TMEM9B,NRIP3,C11orf16,ST5,SCUBE2,RIC3,ASCL3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1829,6 +2019,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>PLA2G4A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -1855,6 +2050,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>TMEM135</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -1917,6 +2117,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>CCDC82,JRKL,MAML2</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -1953,6 +2158,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DENND1B</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -1979,6 +2189,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>PTPRC</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2015,6 +2230,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>HP1BP3,TMCO4,AKR7A2,OTUD3,UBR4,PLA2G5,PLA2G2A,PLA2G2C,NBL1,CDA</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2051,6 +2271,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>NR5A2</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2087,6 +2312,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>DDX59,TMEM9,CAMSAP2,GPR25,C1orf106,NPR3,KIF21B,CACNA1S,KIF14,MAP3K4,ELOVL4,B3GALT2,ASCL5,NAV1,LAD1,PKP1,LMOD1,SHISA4</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2128,6 +2358,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>IL10</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -2164,6 +2399,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>IRF6,RP3-434O14.8</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -2200,6 +2440,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>GPN3,VPS29,SH2B3,ACAD10,ALDH2,NAA25,HVCN1,TRAFD1,HECTD4,PPTC7,TMEM116,FAM109A,TCTN1,FAM216A,LAP3,CD99,HS3ST1,SOX8,AGK,GAS7,CD79B,BAIAP3,MYLIP,CYB561,ETV7,FUZ,IDS,CD22,NUB1,CD6,POLA2,PLEKHB1,NR1H3,VIM,AGPAT4,BTN3A1,PNPLA6,APBA2,NSMAF,VCAN,PARP3,ADAM28,TNFRSF17,RRP12,SYNE2,GALC,CYFIP2,MCOLN3,ATP2B4,MXD1,HIPK2,CTSA,FAR2,KARS,SLK,KLF6,TTC7A,SRBD1,PIGB,POLB,WIPI1,ATP2B1,LMCD1,TCF3,SREBF1,FCGR2B,MRVI1,ALPK1,DHRS9,NUAK1,SCARF1,IPCEF1,TXK,VPS9D1,PLD1,POLD3,UBE2A,TP53INP2,RSBN1,MEF2C,IL12RB2,FYB,COL19A1,COBLL1,MAPRE3,LPCAT2,PTPN4,DOCK9,LAG3,ICAM1,SEL1L3,PSME1,SLC22A17,EZR,DPYSL2,VNN3,DFNB31,BLNK,EFHC1,SH3GLB1,GADD45B,GGT5,LGALS1,PACSIN2,CACNA1I,IL2RB,GZMH,COCH,TCL1A,PSME2,MMP9,ISM1,TM9SF4,RBBP8,KIAA0226L,ACP5,SMPD3,SLC7A6,CLUAP1,CPPED1,SYT17,RAB11A,RIPK2,GSDMD,SQLE,LEPROTL1,FCER2,MED25,DYRK1B,CLC,CD79A,RABAC1,SIGLEC6,CPVL,GRB10,TMEM106B,TSPAN13,CNTNAP3,PDLIM1,OBFC1,ZMIZ1,PSMB3,GALK1,ICAM2,LGALS3BP,DUSP3,PMP22,NFKB1,TBC1D9,INPP4B,RAPGEF2,EHD1,MS4A6A,RNF141,HIPK3,LDHB,KLRB1,BTN3A3,RNGTT,FAM65B,SASH1,MAPK14,CD83,SLC16A10,DUSP22,SLC29A1,ITK,RASGRF2,XRN1,ECT2,OTOF,ACVR1,STAT1,IL18R1,IL18RAP,RALGPS2,RGS2,CD58,GBP1,CR2,CD46,RCAN3,CCND2,WDR34,GALNT12,BCL11A,CD274,EPHX2,KIAA0922,B4GALT4,WWP1,CD97,C4BPA,PLCG1,TOX2,PMEPA1,TREM1,LRRFIP1,AHNAK,RAP2A,FOSB,TMX4,DSTN,BCL11B,MACF1,SGCE,VPREB3,APOL3,APOL2,KIAA1683,JUND,LAMA5,F12,IDO1,TMEM204,TRIM21,FCRLA,IGJ,INADL,SPG20,EPSTI1,LGALS12,RARRES3,MORC2,SFTPD,KRAS,SWAP70,NUMB,BHLHE40,TSPAN2,SORT1,YWHAQ,IL15RA,EMP1,TIMM10,DHX34,ANXA1,HRK,MDFIC,NT5E,TESPA1,RAB11FIP5,DYSF,LAMC1,DOCK10,ITM2C,SERPINE2,CAB39,BLK,RASSF5,KLF4,SLC31A2,NOV,IL11RA,DNAJB5,IRF4,IL18BP,CASP1,SQRDL,RMDN3,CYP1B1,CALHM2,EXOC6,STAT4,PARP9,CXCL9,LEF1,SLC39A8,GABARAPL1,TAPBPL,SLC15A4,WDFY2,RAB20,GPR65,FBLN5,WARS,SLC12A6,HAPLN3,ZFHX3,NLRC5,ZCCHC14,IRF8,SECTM1,RNF165,EMP3,MCL1,FAM63A,RHOB,SLC20A1,FBLN7,CDCA7,DYNC1LI1,OSBPL10,LRIG1,PIK3R1,IQGAP2,KLHL3,EPHA1,FRMPD3,GSN,MSRB2,FAM171A1,SERPING1,NCAM1,GLB1L2,FCGR1A,PRSS23,NR3C2,INPP1,RNF144A,RABGAP1L,SETBP1,EPG5,POC5,PTPRK,BANK1,NR4A2,CD8A,AK5,PRKCA,OBSCN,GBP5,OXNAD1,PPP4R1,APCDD1,RPGR,SH3RF2,HKDC1,UBE2L6,MS4A1,TBC1D31,SUSD3,TSC22D3,KCNJ15,TSPAN18,WDR19,TNFRSF14,LDLRAP1,TAGLN2,RGL4,TPPP3,ZDHHC1,TNFRSF13C,ABCG1,UBASH3A,RALGDS,AMICA1,CXCR5,LMNA,LY6E,ITGA5,DHRS3,FAM102B,GBP2,DENND2D,OXER1,C1orf145,ANTXR2,PBXIP1,AIM2,TIPARP,RBM47,CCR1,SFMBT1,GRPEL2,RHOBTB3,EBF1,TMEM200A,STXBP5,ANKRD55,TAGAP,LMTK2,TMEM71,ARHGEF40,FRAT1,TCP11L2,CKB,WEE1,MTMR10,MS4A7,DUSP18,TBC1D2B,NOD2,TUBA1A,CYP2S1,VPS37C,TRANK1,TTC21A,LTBP3,BATF2,PNOC,DDIT4,MLKL,AXIN2,VAMP5,PARM1,THBS3,CXCL10,ZEB2,LDB2,FOS,MZB1,ZNF296,CHCHD7,MTSS1,TMEM43,TRIM8,C10orf35,PDE7B,ATF7IP,TMEM51,BCL2,RRM2,JMJD1C,MAL,CARNS1,KDM2A,MTX1,PARP14,C1QB,C11orf80,CD7,PHOSPHO1,P2RY14,VCPIP1,MCTP1,UCP2,BAIAP2,TUBB6,ZNF683,VSIG10,WSB2,SAMD9L,TGIF1,JUN,GRAMD1C,TMEM11,PCED1B,SERTAD2,CUEDC1,RELL1,SGK223,TRAK1,ANXA2,UPP1,KCNH8,ZDHHC23,NELL2,C14orf80,IFNLR1,MYBL1,GSAP,BTLA,INSIG1,FANCA,CXXC11,DPYD,FAM26F,FAM53B,IL1RAP,AKR1C3,SPATS2L,S100A4,GIMAP5,CD55,SULF2,TCF4,KIAA1211L,ANXA4,SRC,DPP4,PDCD1LG2,KLHL14,S100A10,FAM212B,FCGR1B,CACNA1E,SH2D1B,RASGEF1A,NHSL2,PSMB10,SNX2,CCDC85C,ANKRD28,COLQ,CCDC19,CRIP1,TCL1B,ANG,TNFRSF25,KIAA0125,C12orf75,TNFRSF13B,GPR162,ATXN2,MAPKAPK5,NFIX,EPB41L3,PGS1,DNAJC5,MS4A4A,CD69,OPRL1,YWHAH,IFI44L,FCRL5,TRPC1,GRINA,C20orf112,LPGAT1,EDC4,RFX2,REC8,TMC6,CCDC50,PGLYRP1,CTNNA1,HERPUD1,PTGS2,PRSS33,RGS9,ACCS,BFSP1,VIMP,ADAM15,EML4,SHISA5,ANXA5,CNTNAP2,UBE2J1,TXNDC5,RP11-162P23.2,KIF3B,CYTH1,NUMA1,CNIH4,KIAA1407,PAX5,DZIP3,BRAP,OAS2,SIRPG,XPC,EFNA1,ADRB2</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -2236,6 +2481,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>COQ5,PRKAB1,GATC,TMEM233</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -2277,6 +2527,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DUSP16,LOH12CR1</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -2313,6 +2568,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>NSL1,BATF3,TATDN3,FLVCR1</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -2349,6 +2609,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>EPHB2,WNT4,HBA2,HTR1D</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -2390,6 +2655,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>MMEL1,PLCH2,FAM213B,TNFRSF14,TTC34,PANK4</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -2426,6 +2696,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>PARP1,PSEN2,ADCK3,LEFTY2</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -2462,6 +2737,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>LRRK2,KIF21A,SLC2A13,IRF8,CNTN1,ABCD2,PDZRN4,PQLC3</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -2498,6 +2778,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>RPAP3,VDR,CALD1,GNG11,PDE5A,TRIM46,SH3BGRL2,RAPGEF3,HDAC7,ENDOU,ZNF641</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -2534,6 +2819,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>TSFM,METTL21B,METTL1,GLI1,ARHGAP9,AVIL,TSPAN31,OS9,XRCC6BP1,PIP4K2C,MARS,DDIT3,DCTN2,CDK4,RP11-571M6.15,B4GALNT1,SLC26A10,ARHGEF25,CYP27B1,AGAP2,AGAP2-AS1,STAT6,MARCH9,SHMT2,KIF5A,DTX3,TMEM194A</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -2570,6 +2860,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>XRCC6BP1,TSFM,METTL21B,AVIL,TSPAN31,CDK4,RP11-571M6.15,NXPH4,CTDSP2,METTL1,CYP27B1,MARCH9,ARHGEF25,B4GALNT1,KIF5A,TMEM194A,INHBC</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -2606,6 +2901,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>IFFO1,TAPBPL,SCNN1A,LTBR,NCAPD2,LPAR5,NOP2,SIDT2,VAMP1,CD27,ABLIM1,CCR7,YWHAH,MMP28,EDAR,DUSP5,CALHM2,CAMK2D,GSN,SLC7A7,PEA15,ANTXR2,MS4A7,KIF5C,GPBAR1,FHIT,GPR162,TPPP3,CCDC167,GNB3,PTMS,PEX5,MRPL51</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -2642,6 +2942,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>IL26,MDM1,IFNG,IL22</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -2678,6 +2983,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>CLECL1,M6PR,CLEC2D,CD69,KLRB1,CLEC1B,CLEC12A,CLEC12B,KLRK1,CLEC1A,PZP,CLEC2B,CD74,SIRPG,CD40LG,NDFIP2,PBX4,INPP4B,ST8SIA1,GZMK,TCF4,ADARB1</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -2714,6 +3024,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>POLR1D</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -2750,6 +3065,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>COG6,AL133318.1</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -2776,6 +3096,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ELF1,WBP4,KBTBD6,LOC101929140,KBTBD7</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -2812,6 +3137,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>AKAP11</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -2843,6 +3173,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>TNFSF11,AKAP11,ANKRD55</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -2884,6 +3219,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>LACC1,CCDC122,ENOX1,DNAJC15,MTMR11,GPR84</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -2910,6 +3250,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>FNDC3A,MLNR</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -2946,6 +3291,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DIS3,BORA,KLF5,MZT1,PIBF1</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -2982,6 +3332,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>GPR18,CLYBL,UBAC2,GPR183,DOCK9,TM9SF2</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -3018,6 +3373,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>MARK3,TRMT61A,AL049840.1,APOPT1,KIF26A,PPP1R13B,KLC1,TDRD9,BAG5,RP11-73M18.2,XRCC3,CKB,ZFYVE21</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -3054,6 +3414,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>TESK2,POMGNT1,PIK3R3,FAAH,NSUN4,MMACHC,MUTYH,MOB3C,CCDC17,CCDC163P,PRDX1,ZSWIM5,MAST2,LURAP1</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -3095,6 +3460,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ZFP36L1,GRAP2,TNFSF4,CDKN1A,CHN1</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -3136,6 +3506,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>MLH3,EIF2B2,FOS,TMED10,RP11-293M10.1</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -3172,6 +3547,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>GALC,GPR65,SPATA7</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -3208,6 +3588,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>C14orf132</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -3249,6 +3634,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>RASGRP1,C15orf53,FAM98B</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -3290,6 +3680,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>RPAP1,OIP5,NUSAP1,RTF1,ITPKA,CHP1,PLA2G4B,NDUFAF1,CHAC1,JMJD7,LTK,EHD4,LAIR2,C15orf57,SPTBN5,TYRO3,PPP1R14D</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -3331,6 +3726,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>SMAD3</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -3367,6 +3767,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ABHD17C</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -3403,6 +3808,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>FURIN,IQGAP1,CRTC3,FES,CIB1,BLM,KIF7</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -3444,6 +3854,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>RMI2,DEXI,RSL1D1,CTD-3088G3.8,SOCS1,NGFRAP1,PRM2,SNN,LITAF,CDKN1A,EMP2,CLEC16A,ATF7IP2</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -3511,6 +3926,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>PRKCB,DCTN5</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -3552,6 +3972,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>SULT1A2,XPO6,SPNS1,CCDC101,TUFM,EIF3C,APOBR,SBK1,CLN3,ATP2A1,SULT1A1,IL27,NPIPB6,EIF3CL,RGS1,STAT1,GBP1,C1orf61,APOL3,RARRES3,WNT7A,VAMP5,MAF,PSMB10,C14orf132,NFATC2IP,SH2B1,NPIPB9,NPIPB7,NUPR1,LAT,RABEP2,NPIPB8,ATXN2L,LAP3,CD38,PARP3,ZNF800,SNX10,PSME1,JAK2,COCH,PSME2,GSDMD,LGALS3BP,BTN3A3,MT2A,GCH1,IL15RA,BIVM,MYOF,SDSL,N4BP2L1,WARS,HAPLN3,DYNLT1,UBE2L6,GBP2,IL15,SMCO4,PBX3,C1QB,GPBAR1,ASCL2,TTC32,MUC1,PATL2,SULT1A4,STAT5A,MOV10,VCPIP1,FAM26F,RP11-231C14.4,RNF31,DAAM1,DDB2,NLRC5,HKDC1,ORC3,CD19</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -3578,6 +4003,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>USP1,DOCK7,ANGPTL3</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -3619,6 +4049,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ITGAL * (This study)</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -3650,6 +4085,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>ADCY7</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -3691,6 +4131,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>NOD2</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -3732,6 +4177,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>ZFP90,CDH1,SMPD3,SLC7A6,CIRH1A,LCAT,CDH3,DDX28,PDF,PLA2G15,SLC7A6OS,PRMT7,NFATC3,MCOLN3,IL21R,CAV2,KLRG1,ZCCHC14,CPAMD8,WDR63,CDCA7L,RTKN2,TANGO6,COG8</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -3773,6 +4223,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>IL23R* (Pidasheva et al, 2011; PMID 22022372)</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -3814,6 +4269,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>PLCG2</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -3840,6 +4300,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>CDH13</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -3876,6 +4341,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>IRF8,GINS2,ZDHHC7,C16orf74,AK2,VCAN,GSTP1,LEPREL1,PSMA3,BLVRA,RASSF4,MS4A6A,ALDH2,SLC4A3,KYNU,SCPEP1,C1orf162,TNFRSF21,HNMT,EPHB1,ZNF385A,KLHL21,ALDH1A1,FOLR2,NDRG2,CLEC12A,NET1,CATSPER1,PSAP,ANG,MTHFSD,CYP1B1,SMPDL3A,GRN,SMARCD3,FCN1,IRAK3,IL21R,TMEM205,CPVL,AGFG2,CLEC4A,LY86,POLE4,RAB32,SLC46A2,TGFBI,CCR2,RHOT1,NAV1,NARS,FXYD6,FBN2,SLC24A4,SAT2,ASGR1,SUMF1,ASGR2,S100A12,RRM1,CD14,COMMD5,GIMAP8,CD163,FZD2,TPCN1,KIAA1598,NHLRC3,SLC2A9,MAN2A2</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -3902,6 +4372,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>ANKRD13C,HHLA3,CTH</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -3938,6 +4413,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>KSR1,WSB1,LGALS9,AC015688.3</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -3979,6 +4459,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>CCL8,CCL2,CCL11,CCL13,CCL1</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -4020,6 +4505,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>ERBB2,MIEN1,PGAP3,GSDMB,GSDMA,ORMDL3,FBXL20,MED1,STARD3,PPP1R1B,PNMT,IKZF3,ZPBP2,FBXO47,TCAP,SMARCE1,PSMD3,CDK12,CD79B,TCL1A,FCER2,CD79A,TSPAN13,VPREB3,LARGE,NOV,DIRC2,ADM,NCAM1,HOPX,CSF3,ARL5C,STAC2,MED24,CTD-2267D19.3,IGFBP4,MSL1,CASC3,CD38,ABCB4,CD22,CD74,STAP1,SBNO2,BCL3,TGFBR3,TPD52,IL4R,MOXD1,MEF2C,COBLL1,PGS1,SEL1L3,BLNK,APOBEC3H,MLC1,GZMB,CD40,NCALD,NKG7,RGS9,CD83,BACH2,ITK,GNLY,IL18RAP,KMO,CR2,B4GALT6,MYB,BCL11A,MOB3B,TRIM25,IL1B,CHSY1,FCRLA,FLOT2,KLRC1,FAM129A,BLK,CD72,CASP5,LEF1,PRICKLE1,RNF165,OSBPL10,CSRNP1,NFKBIZ,EAF2,GZMA,CREB5,ITPR1,PTPRK,BANK1,ADAMTS1,MS4A1,GAB3,S100B,ALOX15,ALPL,FCRL1,ZDHHC19,EBF1,CDCA7L,STRBP,GFI1B,FAM69B,DHRS13,PNOC,PFKFB3,CXXC5,TLR6,PRF1,ZNF438,BTLA,DNAH17,PAX5,AKR1C3,TECPR2,CASP4,FAM177B,KLHL14,PIM3,TCL1B,KIAA0125,PEG10,RAPGEFL1,GRB7,CST7,IL2RB,ATF6,PI3,TLR5,CACNB1,IL12RB2,XRN2,GGA2,SGK1,HVCN1,PMEPA1,LAMC1,XCL2,PARP1,ZCCHC7,EOMES,SPRY1,DTHD1,KRT24,TNFSF13B,ST3GAL4,TPRG1L,FAM102A,LIMK2,KLHDC8B,KIAA1211L,TIMELESS,NT5E,ERP27,ZMAT4,CLIC3,SHMT2,TCF4,CACNA1E,ALPK1,HCK,RBL2,KCNJ2,GSAP,TMEM185B,HCAR3,TMEM204,LDB2,TPST1,LRRC3C,AMD1,SLPI,KLHL22,PTGDS,MAPK14,RTKN,CD27,GPR65,ACSL1,RNF149,PLXDC1,THRA,TMEM99,TOP2A,PPP2R5A,TNFRSF1A,MAP1LC3A,USB1,AQP9,CD274,DKC1,DSC2,FLNB,CCM2,RALB,PTPRJ,PDE3B,PIK3AP1,KCNJ15,ZYX,KLHL21,TMEM71,FPR2,SH3BP5L,ULK1,HCAR2,ZFP36L1,ARFGAP3,NR1D1,YIPF1,RELB,GCA,CAP1,LY96,CDA,PROK2,IFI16,SEMA4A,SLC45A4,DGAT2,NDST1,MRVI1,CIC,ICAM1,HAUS4,SH3GLB1,CYTH4,CSF2RB,NIN,ITPK1,STK3,NAMPT,LPCAT3,DSE,HRH2,SIPA1L2,UBN1,CSF3R,CYSTM1,NUP214,ALOX5AP,NUMB,ECHDC3,PLXNC1,IL1RN,FCHSD2,TLE3,DEF8,SECTM1,FCGR2A,TIFA,MSRB2,BCL2L11,MARCKS,ST3GAL2,KIT,GALNT14,HIST1H4H,NCF1,BTG2,SHKBP1,SH2B2,AIM2,WDFY3,PLB1,HMGB2,ANKRD55,FBP1,ZNF319,CLEC4E,MIDN,TET2,CEACAM3,JUNB,CEBPB,SH3RF3,BASP1,C17orf62,CITED4,GNG2,HIST1H1C,LAMTOR4,PLSCR1,HN1,ARRDC1,SLC22A4,MPZL1,MAP3K3,HIST1H3H,CCR7,MMP25,MTMR11,FAM120A,TSPAN32,UBE2D1,VPS9D1,KIFAP3,TRIM9,GMPR2,GALK1,CPEB4,CCNI,ZFP36,ITGB4,CCNJL,DYSF,NAB1,USP3,DAAM2,NXF1,RBM47,PLIN4,XPO6,AHSP,TIGD3,TLR1,CTDSP2,GPR97,MARC1,PRKAR1B,LITAF,FHIT,SERPINA1,SIRPA,ASPH,FNIP1,TAS2R40,LYN</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -4056,6 +4546,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>DHX58,STAT5A,STAT3,JUP,RAB5C,STAT5B,NAGLU,BECN1,AOC2,NT5C3B,PSMC3IP,NBR1,FAM134C,HSD17B1,MLX,TUBG2,KCNH4,HSPB9,PTRF,IFI35,VPS25,EIF1,AOC3,FKBP10,ARRDC4,CNTNAP1,COASY,VAT1,WNK4,BRCA1,ZNF385C,ATP6V0A1,PLEKHH3,TUBG1,CNP,G6PC,ACLY,TMEM106A,EZH1,DNAJC7</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -4082,6 +4577,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>C17orf67,DGKE</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -4123,6 +4623,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>HEATR6,TUBD1,YPEL2,RNFT1,TMEM176A,BCAT1,MS4A4A,GZMK,MED28,TGFBI,SNRPC,CTSL,CYP27A1,CDKN2B,EIF4EBP2,ALDH1A1,ANKRD46,VMP1,RPS6KB1,RP11-178C3.1,CA4,DHX40,PRR11,TRIM37,SKA2,NSF,ALDH2,SLC24A4,APCDD1,PPP2R2B,TPRG1L,ASGR2,ECI2,GDPD1,RAD51C</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -4159,6 +4664,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>CLEC10A,ASGR2</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -4195,6 +4705,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>SLC39A11</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -4231,6 +4746,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>TIMP2,USP36,CYTH1,DDC8</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -4267,6 +4787,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>VAMP3,PER3,UTS2,PARK7,CAMTA1,TNFRSF9,ERRFI1,ZSWIM3,RERE</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -4293,6 +4818,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>NEXN-AS1,NEXN,FUBP1,DNAJB4,GIPC2,MGC27382</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -4329,6 +4859,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>CEP192,SLMO1,TUBB6,PTPN2,SEH1L,SPIRE1,AFG3L2,ZNF619</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -4365,6 +4900,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>RBBP8</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -4417,6 +4957,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>CTIF,MIR4743,SMAD7,DYM,MIR4744</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -4474,6 +5019,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>CD226</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -4510,6 +5060,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>NFATC1</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -4551,6 +5106,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>ICAM1 * (This study), TYK2 * (Couturier et al, 2011; PMID 21354972)</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -4587,6 +5147,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>FAM69A,EVI5,RPAP2,GFI1,GLMN,C1orf146,KIAA1107,MTF2</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -4623,6 +5188,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>PPARGC1A,DSC2,GATA2,SLITRK4,CDH2,CD34,CD79B,TCL1A,PLCL1,RTN1,MS4A3,CPA3,CDCA4,C3AR1</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -4659,6 +5229,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>KIAA0355,ZNF181,LSM14A</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -4695,6 +5270,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>ZNF568,ZNF540,ZNF571,ZFP82,HKR1,ZNF829,ZNF566,ZNF793,ZNF573,ZNF565,ZNF781,ZNF420,ZNF585B,ZNF585A,ZNF790,CTC-454I21.3,ZNF345,ZNF260,ZNF570,ZFP30,ZNF607,CTD-2162K18.4,SIPA1L3</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -4731,6 +5311,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>PRKD2,PTGIR,CALM3,GNG8,FKRP,PNMAL1,DACT3,PPP5D1,DHX34,PPP5C,PNMAL2,CHN2,GNLY,ERBB2,SLC20A1,AGAP1,EOMES,HOPX,COLGALT2,AC011484.1,CCDC8</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -4772,6 +5357,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>FUT2</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -4813,6 +5403,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>FCAR,KIR2DL1,KIR2DL3,FBXL19,SPRY2,PLEKHF1,GPR56,KIR3DL1,KIR2DL4,KIR3DL2,KIR3DL3,NCR1</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -4854,6 +5449,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>WDR18,POLR2E,STK11,GPX4,CNN2,ABCA7,TPGS1,GRIN3B,TMEM259,CFD,PALM,SBNO2,TCIRG1,PPAP2C,ABHD17A,ATP5D,MED16,C19orf26,HMHA1</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -4890,6 +5490,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>B3GALT6,SDF4,CPSF3L,SSU72,SCNN1D,PUSL1,TNFRSF4,TNFRSF18,GLTPD1,MRPL20,ACAP3,TTLL10,RP4-758J18.2,ANKRD65,FAM132A,ATAD3C,AL645728.1,MXRA8,TAS1R3,ATAD3A,VWA1,DVL1,PRKCZ,AURKAIP1</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -4926,6 +5531,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>HCK,TM9SF4,PLAGL2,ASXL1,C20orf112,RHOBTB1,RETN,MAPKAPK3,CHD5,CDKN1C,SPOCD1,CKB,CYP4F22,XKR7,POFUT1,COX4I2</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -4967,6 +5577,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>ASXL1,C20orf112,COMMD7,TM9SF4,RP11-410N8.4,DNMT3B</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -5003,6 +5618,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>PROCR,UQCC,CEP250</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -5039,6 +5659,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>CHD6,EMILIN3,LPIN3,ZHX3,PLCG1,TOP1</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -5075,6 +5700,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>CHD6,EMILIN3,LPIN3,ZHX3,PLCG1,TOP1</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -5111,6 +5741,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>TTPAL,SERINC3,PKIG,HNF4A,JPH2,MYBL2,C20orf62,ADA</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -5152,6 +5787,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>PLTP,WFDC3,SLC12A5,NEURL2,CTSA,PCIF1,MMP9,CD40,DNTTIP1,TNNC2,SNX21,ACOT8,SPATA25,ZSWIM1,ZNF335,WFDC10B,WFDC6,CD79B,CD22,CD74,COL19A1,COBLL1,OVGP1,TCL1A,FCER2,CD79A,KMO,CR2,BCL11A,ZMIZ2,HVCN1,VPREB3,LAMC1,BLK,IL11RA,LEF1,BANK1,MS4A1,CXCR5,SLC38A11,ABCB4,STAP1,MEF2C,GGA2,TIMELESS,CD83,MYO1B,FCRLA,CABYR,BEND5,EBF1,BTLA,SEL1L3,TSPAN13,CDR2,ITPR1,SLC35C2,CDH22</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -5188,6 +5828,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>CEBPB,PTPN1,STAB1,MTMR11,OPN3,EPB41L3,IRAK3,NLRC4,SYT17,ERICH1,MS4A4A,LTA4H,ALDH2,VNN1,PDE8B,CD86,SLC46A2,TNFRSF8,SOX4,SH3TC1,PLAGL2,KL,SFTPD,MBD2,SORT1,EMP1,KLF4,SLC24A4,SIDT2,CCDC50,MERTK,PID1,SLC7A7,CACNA2D3,FMNL2,C21orf33,LMNA,ALDH1A1,SPRED1,CKB,MS4A7,MS4A14,COQ2,GPBAR1,CSF1R,VMO1,FPR3,HES4,DCLRE1A,TBC1D8,CLEC5A</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -5224,6 +5869,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>EDN3,ZNF831,STX16,CTSZ,SLMO2,GNAS,BZRAP1,TUBG2,TRIB2,PABPC1L,PHYH,HPCAL4,MED20,PAN2,TRMT112,MT1F</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -5250,6 +5900,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>FERMT1</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -5291,6 +5946,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>EEF1A2,GMEB2,STMN3,SLC2A4RG,ZGPAT,LIME1,RTEL1,HELZ2,RTEL1-TNFRSF6B,DNAJC5,UCKL1,RP4-583P15.15,ARFRP1,PCMTD2,DIDO1,TNFRSF6B,SLCO4A1,OPRL1,PTK6,ZBTB46,BHLHE23,TPD52L2,PRPF6,PPDPF,ABHD16B,C20ORF135,OGFR,EEF2,SLC10A3,GPD1L,GCHFR,HIST1H2BD,C20orf195,TCFL5,COL9A3,TCEA2,ZNF512B,MYT1</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -5327,6 +5987,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>AFF3,LIPT1</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -5368,6 +6033,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>IL18RAP</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -5399,6 +6069,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>NRIP1,MAP1LC3A,TP53INP1,TNFRSF13B,TNK1</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -5440,6 +6115,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>IFNGR2,GART,SON,ITSN1,TMEM50B,DNAJC28</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -5476,6 +6156,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>ETS2,WRB,LCA5L,SH3BGR,HMGN1,PSMG1,BRWD1</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -5512,6 +6197,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>ICOSLG,AP001055.1,TRAPPC10,PWP2,PFKL,PDXK,CSTB,RRP1,AIRE,C21orf2,C21orf33,C21orf67,ITGB2,DNMT3L,LRRC3DN,LRRC3</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -5548,6 +6238,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>IL2RB,SHD,XCR1</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -5574,6 +6269,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>LY75-CD302,LY75,PLA2R1</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -5615,6 +6315,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>IFIH1</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -5656,6 +6361,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>ITGA4 * (This study)</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -5682,6 +6392,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>ITGAV,FAM171B</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -5718,6 +6433,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>GLS,STAT4,MFSD6,HIBCH</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -5754,6 +6474,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>RFTN2,PLCL1</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -5790,6 +6515,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>SATB2,PLCL1</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -5826,6 +6556,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>CD28,CTLA4,CARF,ABI2,RAPH1</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -5867,6 +6602,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>SLC11A1,ZNF142,AAMP,PNKD,TMBIM1,RQCD1,CXCR1,ARPC2,GPBAR1,CXCR2,RUFY4,CYP27A1,C2orf62,CTDSP1,RORC,NSG1,DIRC3,CCDC108,KIF5C,IHH,GLB1L</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -5908,6 +6648,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>UBE2L3,CCDC116,RIMBP3C,RIMBP3B,HIC2,MED15,PPM1F,TOP3B,PPIL2,YPEL1,YDJC,PI4KA,GABARAPL2,ODC1,DPM2,SELENBP1,ACP1,GUK1,PDZK1IP1,AXIN2,ATP6V0C,HBD,BLVRB,GBGT1,TPGS2,RIMBP3</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -5939,6 +6684,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>CCL20</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -5975,6 +6725,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>CCL20</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -6016,6 +6771,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>SF3A1,SEC14L2,SEC14L3,THOC5,ZMAT5,ASCC2,MTMR3,UQCR10,NIPSNAP1,CABP7,CCDC117,HSCB,NF2,LIF,SEC14L6,GATSL3,NEFH,RHBDD3,EPHX2,CCR7,PAQR8,FHIT,DUSP18,HORMAD2,LEF1,TRABD2A,CYB561,PLEKHB1,CLDND1,SLC22A17,ABLIM1,PLLP,HAGHL,BACH2,MMP28,PNPLA7,EDAR,SLC22A23,LYAR,CHMP7,FAM134B,OXNAD1,LDLRAP1,DACT1,ADPRM,NET1,TNFRSF4,CALM3,NUDT21,SGK223,SELM,NIPAL3,TCN2,MTFP1,SNPH,HOOK1,GSTM2,CCDC157,SLC35E4</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -6062,6 +6822,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>SP140</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -6108,6 +6873,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>ATG16L1</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -6144,6 +6914,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>TOM1</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -6185,6 +6960,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>PVALB,NCF4,TST,RTKN2,CTA-833B7.2</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -6221,6 +7001,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>PDGFB,RPL3,SYNGR1,MGAT3,TAB1,APOBEC3C,JOSD1,APOBEC3A,DNAL4,MIEF1,TNRC6B,ATF4</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -6257,6 +7042,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>DESI1,NHP2L1,CCDC134,CENPM,EP300,L3MBTL2,PMM1,TEF,MEI1,CSDC2,SMDT1,NAGA,POLR3H,ACO2,CYP2D6,RANGAP1,WBP2NL,ZC3H7B</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -6293,6 +7083,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>GPR35,ANKMY1,DUSP28,RNPEPL1,SEPT2,CAPN10,AQP12A,ANO7,AQP12B,AC011298.1</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -6329,6 +7124,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>BOK</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -6365,6 +7165,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>GAL3ST2,NEU4,PDCD1,BOK,D2HGDH</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -6406,6 +7211,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>NCOA1,TP53I3,DNAJC27,ADCY3,CENPO,EFR3B,POMC,UBXN2A,PTRHD1,ADCY8,DNMT3A,CD6,CD5,CD2</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -6442,6 +7252,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>PANX2,MLC1,TRABD,PIM3,IL17REL,DENND6B,CRELD2</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -6478,6 +7293,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>KRTCAP3,CAD,EIF2B4,NRBP1,SNX17,PPM1G,KHK,SLC5A6,ATRAID,ZNF513,SLC4A1AP,GPN1,GTF3C2,IFT172,CGREF1,GCKR,FNDC4,TRIM54,SUPT7L,DPYSL5,C2orf16,ZNF512,MYLIP,TNFSF13B,CREB5,ABCG1,ABCA1,KLF11,CD14,MAPRE3,BRE,RBKS</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -6514,6 +7334,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>EIF2B4,NRBP1,PPM1G,KRTCAP3,BRE,SNX17,SLC4A1AP,FOSL2,PRKDC,PLB1</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -6550,6 +7375,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>DYNC2LI1,THADA,PLEKHH2,ZFP36L2,ABCG8,OXER1,SLC3A1,PPM1B,MARCO,FCN1,PNKD,TRPM4,FBP1,TMEM51,CD9,PFKP,DHPS,IL2RB,KIAA0247,SH3PXD2A,SASH1,EPHA4,ATP6V0B,UBN1,PCMT1,LAMP5,EMC7,DSC2,C18orf8,HNMT,CXCR5,MED30,FAM96B,ANPEP,PTK2,FRAT2,MME,UCKL1,C12orf75,LYN,GNB1,HDAC1,DDX21,IGF2R,CD48,RTN1,CD22,SEC23B,CHN2,ATP5B,SDHB,VIMP,LEF1,ITGAX,PNOC,LRRC28,PRKCDBP,CHST11,ADRBK1,JUP</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -6612,6 +7442,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>AHSA2,USP34,REL,PUS10,PEX13,KIAA1841,C2orf74,PAPOLG,XPO1,PLEK2,HTR3A,BCL11A,FAM161A,RTKN2,COMMD1,CCT4</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -6648,6 +7483,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>B3GNT2,COMMD1,OTX1,EHBP1</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -6684,6 +7524,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>ACTR2,SPRED2,CEP68</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -6720,6 +7565,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>ARHGAP25,WDR92</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -6746,6 +7596,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>IMPG2,SENP7,FAM172BP</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -6772,6 +7627,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>NFKBIZ</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -6808,6 +7668,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>ZBTB38,RASA2,VPS41,BAIAP3,UBR2,LAMC3,SH3PXD2A,KRT23,PASK,UBN1,PLBD1,CD93,VIL1,RPA1,KATNBL1,HLX,ASGR1,PTPRN2,B4GALT5,FBXL13,ALPL,HENMT1,S100P,LIPC,JAM3,HEXIM2,ANXA2R,LPAR5,LDOC1L,TECPR2,SPDYC,TUBA1C</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -6839,6 +7704,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>SATB1,TBC1D5,IL2RB,PRR5L,ERBB2,LDB2,LINGO2,PRF1,SH2D1B,CD247,OSBPL5,ADAMTS1</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -6865,6 +7735,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>LPP</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -6901,6 +7776,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>CCRL2,CCR5,FYCO1,CCR1,CXCR6,CCR3,TDGF1,LRRC2,ALS2CL,CCR2,SACM1L,LTF</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -6947,6 +7827,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>MST1</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -6988,6 +7873,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>NA,RP11-894J14.5,SFMBT1,RFT1,STAB1,ITIH4,SPCS1,TKT,PRKCD,NT5DC2,PPM1M,MUSTN1,TWF2,SERBP1P3</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -7014,6 +7904,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>FOXP1</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -7055,6 +7950,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>MANBA,NFKB1,CISD2,SLC9B2,BDH2,SLC9B1,BANK1,MEOX1,SOX8,CD4,PLAUR,MARCO,ALAS1,COL9A2,RRP12,IPCEF1,COBLL1,FCGBP,SEL1L3,ABLIM1,COCH,LACTB,KCNN4,DENND3,CEP41,CNTNAP1,FBXW7,CAMKK2,IL23A,KLRB1,SLC16A10,GZMK,VIPR1,FOXP1,RPL22,ELOVL4,BCL11A,ARAP3,PQLC1,OPTN,PI3,PEPD,LAMP5,EMR2,SPINK2,MMP28,SLC6A6,CA1,IL6ST,CCNJL,ITM2C,WNT10A,CYP27A1,EDAR,CKAP4,LMO7,BLK,CYP1B1,LEF1,ZCCHC14,IRF8,ADC,PI4KB,ITPKB,OSBPL10,KLHL3,EPHA1,IL2RG,GSN,FAM171A1,PAK1,EML3,FEZ1,MPP7,FOXO1,ZNF827,BAG3,CCDC50,PRKCA,LONRF1,OXNAD1,SORCS3,GHRL,SQSTM1,SHANK1,ZG16B,AIM2,ICOS,ANKRD55,FOLR2,AXIN2,SDC2,REPS2,SLC16A5,ZNF296,LRRN3,JUP,NET1,HOXB2,P2RY14,GNG7,ALS2CL,PCED1B,TSHZ2,NDN,HCAR2,SSTR3,CD300LF,HYAL3,FHIT,CTSE,TCF4,C1orf228,CD3E,TCEA3,TNFRSF25,TNFRSF13B,HCAR3,UBE2D3,SLC39A8,NA</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189">
@@ -7081,6 +7981,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>TET2</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -7117,6 +8022,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>ANXA5,EXOSC9,KIAA1109,TRPC3,BBS7,FGF2,SPATA5,KRT18,SPRY1,SAMD9</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -7174,6 +8084,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>DOK7,HGFAC</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -7205,6 +8120,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>AC021860.1,CLEC4G,KIAA1239,C4orf19</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -7267,6 +8187,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>OCIAD1,SLAIN2,TEC,CNGA1,SLC10A4,NFXL1,TXK,OCIAD2,GRM2</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -7308,6 +8233,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>PF4V1,CXCL5,PPBP,CXCL1</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -7334,6 +8264,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>SLCO4C1,SLCO6A1,LINC00492,LINC00491</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198">
@@ -7375,6 +8310,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199">
@@ -7406,6 +8346,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>CDC42SE2,LYRM7,CHSY3,HINT1</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200">
@@ -7447,6 +8392,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>CDC42SE2,HINT1,RAPGEF6,P4HA2,LYRM7,SCD,PRSS33,CLC,SLC29A1,STAT1,TNFRSF25,PDLIM4,ACSL6,SLC22A4,SLC22A5,RAD50,KIF3A,SHROOM1,C5orf56,IRF1,C1orf61,CYP4F22,PTGDR2,HSPA4,SEPT8,IL13,FNIP1,GDF9,SOWAHA,FGFBP2,ARRDC4,INPP1,GPER1,KRT72,SYNM,AGK,RARRES3,PRSS23,PATL2,RNASE2,IL17RB,TFF3,KRT86,INSIG1,AFF4,IL5,APBA2,CEBPE,NCAM1,C1QB,CORO1B,LAP3,POLB,EPB41L3,DDX58,LGALS3BP,GZMK,CD46,AKAP7,RBCK1,APOL3,APOL2,TSPAN2,MYOF,WARS,APCDD1,KCNMA1,AIM2,IL15,ALDH1A1,TRANK1,VAMP5,ARPP21,FAM26F,CACNA1E,TBC1D8,CTSL,CACNA2D3,CYP2S1,PDE7B,C1QA,TCN2,IL4,CCNI2</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201">
@@ -7483,6 +8433,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>PCBD2</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202">
@@ -7524,6 +8479,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>KIAA0141,GNPDA1,NDFIP1,PCDHB8,ARAP3,RNF14,PCDHGC3,PRSS33,CCR3</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203">
@@ -7560,6 +8520,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>CAMK2A,SLC6A7,NDST1</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204">
@@ -7601,6 +8566,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>RBM22,ZNF300,IRGM,SMIM3,TNIP1,GPX3,AC010441.1,RPS14,FAT2,SLC36A1,ZNF300P1</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -7637,6 +8607,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>HAVCR1,TIMD4,EMC2,USP15</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -7673,6 +8648,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>RNF145,UBLCP1,TTC1,NSMCE1</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207">
@@ -7699,6 +8679,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>ERGIC1</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208">
@@ -7735,6 +8720,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>CPEB4</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209">
@@ -7771,6 +8761,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>UIMC1,FGFR4,RGS14,LMAN2,RAB24,PRELID1,FAM153A,MXD3,UNC5A,NSD1,PDLIM7,SLC34A1,F12,KIF5C</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210">
@@ -7812,6 +8807,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>SLC9A3,EXOC3,ZDHHC11,C5orf55,AC026740.1,CCDC127,TPPP,ZDHHC11B,CEP72,CTD-2228K2.5,SDHA,BRD9,SLC12A7,PDCD6,AHRR</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211">
@@ -7838,6 +8838,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>IL7R,CAPSL</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212">
@@ -7874,6 +8879,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>OSMR</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213">
@@ -7910,6 +8920,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>PTGER4,CARD6,DAB2,PRKAA1,TTC33,C6,C7,RPL37,SPINT2,PLCXD3</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214">
@@ -7946,6 +8961,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>IL6ST,ANKRD55,NRG1</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215">
@@ -7977,6 +8997,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>PTCD2,TMEM171</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216">
@@ -8013,6 +9038,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>FCHO2,FOXD1,TMEM171,BTF3</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217">
@@ -8059,6 +9089,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>ERAP2</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218">
@@ -8095,6 +9130,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>C6orf203,QRSL1,BVES</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219">
@@ -8136,6 +9176,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>REV3L,KIAA1919,RPF2,SLC16A10,TRAF3IP2,TUBE1,WISP3</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220">
@@ -8162,6 +9207,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>FAM26F,TRAPPC3L</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
@@ -8198,6 +9248,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>RNF146,RSPO3</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222">
@@ -8234,6 +9289,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>ECHDC1,RNF146,THEMIS,C6orf58</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223">
@@ -8270,6 +9330,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>SGK1</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224">
@@ -8306,6 +9371,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>PERP,HEBP2</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225">
@@ -8342,6 +9412,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>PHACTR2</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226">
@@ -8399,6 +9474,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>TAB2,GINM1,NUP43,PCMT1,ZC3H12D,LRP11</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228">
@@ -8435,6 +9515,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>RSPH3,TAGAP,LCN2,CAMP,BPI,OLFM4,OLR1,LTF,CEACAM6,MMP8,CHIT1,TCN1,ABCA13,CRISP3,COL17A1,SCD,RETN,PNLDC1</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229">
@@ -8476,6 +9561,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>RNASET2,RPS6KA2,MLLT4,FGFR1OP,RP11-514O12.4,CCR6,AMICA1,SFT2D1,MYH9,PSAP,EDC4,CHN1,TUB</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230">
@@ -8533,6 +9623,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>CDKAL1,SNX12,MBOAT1</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232">
@@ -8569,6 +9664,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>SOX4</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233">
@@ -8605,6 +9705,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>LRRC16A,TRIM38,BTN2A2,SLC17A3,HIST1H3B,HIST1H2BD,HIST1H4H,BTN3A2,HIST1H2BF,HIST1H4E,BTN3A1,BTN2A1,HIST1H2AC,HIST1H2BA,FAM65B</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234">
@@ -8641,6 +9746,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>HLA-C,PSORS1C1,HLA-DRB1,HLA-DQA1,HLA-DQB1</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235">
@@ -8667,6 +9777,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>SLC22A23</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236">
@@ -8714,6 +9829,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>CCND3</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238">
@@ -8771,6 +9891,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>BACH2,MEOX1,AP3M2,FCGBP,CACNA1I,ADAM23,PASK,CD207,SLAMF1,C2orf40,CLEC10A,CD36,CPNE8,LPAR6,TBCD,BTBD11,HKDC1,CD1C,CD1E,LMNA,NDRG2,TTC39C,AXIN2,ENHO,LRRN3,CD28,FCER1A,C1orf228,C14orf132,STAB1,SLC22A17,PLLP,ID2,BAG3,SORCS3,CTLA4,HBG1,TIFAB,CD96,ICOS,TSHZ2,CD99,IDS,ME1,LPXN,SLC4A3,PRDX1,BATF3,SH3BP4,IDO1,FAM13A,PLXDC1,DACT1,RGMB,VWA5A,MAN2A1,GSTP1,FLT3,PARP9,PRKCA,NAP1L2,SOX8</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240">
@@ -8807,6 +9932,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>EPHB4,TRIP6,TFR2,MOSPD3,PILRB,C7orf43,SLC12A9,GIGYF1,TRIM4,MEPCE,UFSP1,LAMTOR4,PVRIG,FIS1,AP4M1,ACHE,STAG3,CUX1,MUC3A,ZSCAN21,TAF6,RPL22,SRRT,GJC3,GNB2,COPS6,NYAP1</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241">
@@ -8848,6 +9978,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>DLD,CBLL1,SLC26A3,COG5,FAM3A,THAP5,HBP1,BCAP29,LAMB1</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242">
@@ -8874,6 +10009,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>ST7,MIR6132,ST7-AS2,ST7-OT3,WNT2,ASZ1,CFTR</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243">
@@ -8915,6 +10055,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>TNPO3,IRF5,ICAM3,LGALS3BP,CD300E,ALDH1A1,MS4A7,AGPAT3,VMO1,AC010536.1,SMKR1,TSPAN33</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244">
@@ -8946,6 +10091,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>CUL1</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245">
@@ -8982,6 +10132,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>CUL1</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246">
@@ -9018,6 +10173,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>AHR</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247">
@@ -9054,6 +10214,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>ITGB8 * (This study)</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248">
@@ -9095,6 +10260,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>GNA12,AMZ1</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249">
@@ -9131,6 +10301,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>HOXA9,SKAP2,HOXA5,HOXA10,HOXA2,HOXA3,HOXA4,RP1-170O19.20,HOXA7,HOXA1,HOXA6,C7orf71</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250">
@@ -9172,6 +10347,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>JAZF1,DDX24,CBX7,DDX5,CCND1,PRG4,CCND2,FBLN7,FBXO32,ANKRD55,FHIT,C14orf132,PLEKHB1,AP3M2,SLC8B1,SLC22A17,NDFIP2,ENO2,FAM184A,TGFBI,CCR7,IL6ST,LMTK3,CREG1,TRPC1,TTC12,ANK3,PRKCA,LDLRAP1,ZNF540,NET1,TSHZ2,ITGB3,CFH,ABLIM1,ZNF331,CD1D,RGL4,NUTM2E,GLIPR1,CDK6,EPHX2</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251">
@@ -9208,6 +10388,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>C7orf72,FIGNL1,IKZF1,SEMA3C,NRP1,REC8,RETN,CUX2,ALDH2,LAMP5,RRAS,IFI6,DSC2,ITM2C,IRF8,TNFRSF21,CCDC50,PITPNC1,MX1,DNASE1L3,HIST1H2AE,SCN9A,LAMB2,CORO1B,EHBP1L1,IRF7,IFIT1,DLEU7,NUDT17,F5,SCAMP5,LILRA4,PHEX,MTMR11,CYP46A1,MEF2A,SCARF1,FSCN1,HOXA9,SIGLEC1,OAS1,LEPREL1,ASIP,TNFSF13B,MMP15,CRYM,SHD,PTPRS,PPARGC1A,UNC93B1,MS4A6A,OAS3,OAS2,KIAA1324,RIMS3,IFIT2,SCPEP1,TSHZ3,OBSL1,PACSIN1,APOL3,PSME3,CLEC10A,CHI3L1,MYBPH,EPSTI1,RSAD2,CMPK2,EMP1,OASL,SLC41A2,CIB2,TOR1B,ENPP2,FXYD6,IFI44L,IFI44,CYP1B1,HERC6,HERC5,ASGR1,ZCCHC2,APP,DOCK1,EPHB1,CLIC2,CACNA2D3,CD1B,ASGR2,SLC18A2,NDRG2,IDH3A,AXL,NLRP7,SERPINF2,PNOC,PRKCDBP,CLCN5,COL24A1,TMEM51,PARP14,GAPT,KBTBD11,SAMD9L,DDX60L,MX2,NAT8L,IFITM1,KRT5,MARC1,ISG15,RYR1,TCF4,DBNDD2,SRI,KL,PLEKHA7,CCDC183,SGK1,PI3,CD93,NOTCH2,TMEM91,IQGAP2,DENND5A,MME</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252">
@@ -9249,6 +10434,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>KDELR2,ZDHHC4,DAGLB,FLJ20306,RAC1,CYTH3</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253">
@@ -9285,6 +10475,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>GTF2IRD2,GTF2IRD2B,NCF1,TRIM73,GTF2I,SLC6A13,PPP1R14A,POM121C,WBSCR16,GATSL1,HIP1,GATSL2</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254">
@@ -9321,6 +10516,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>GATAD1,CDK6,PEX1</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255">
@@ -9362,6 +10562,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>TRIM4,CNPY4,COPS6,SMURF1,ZKSCAN5,BUD31,ARPC1B,ZSCAN21,AP4M1,DCLRE1A,CYP3A5,CPSF4,MECP2,MBLAC1,GAL3ST4</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256">
@@ -9398,6 +10603,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>TRPS1</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257">
@@ -9434,6 +10644,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>TATDN1,TRIB1,ALDH1A1</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258">
@@ -9465,6 +10680,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>AXIN2</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259">
@@ -9501,6 +10721,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>GAS7,CD79B,STAB1,CD22,MTMR11,ATP6V0A1,STAP1,TIMP2,VCAN,AP2S1,ME1,TTC7A,CYBRD1,NSF,STXBP2,IL4R,SMARCD3,GSTP1,CERS4,SEL1L3,CD200,RPGRIP1,DPYSL2,COMT,TBC1D2,LGALS1,TOM1,TCL1A,ASIP,BCKDK,CTSH,BMF,FCGRT,ARHGEF18,FCER2,TNNT1,PLD3,CD79A,CD33,TMEM205,CPED1,CPVL,TSPAN13,AEBP1,RASSF4,GALK1,RASD1,ICAM2,SLC2A9,MS4A6A,SLC11A2,ALDH2,BACH2,LY86,H2AFY,CD86,WLS,CR2,STX12,CTSD,RAB32,SLC46A2,BCL11A,TGFBI,CXCR4,LRP1,PMEPA1,CD93,VPREB3,TRPM4,LRP3,FCRLA,EMILIN2,CLEC10A,SWAP70,PSRC1,PTGFRN,ADAM19,DTX1,CD36,CYP27A1,TNS3,KCTD3,CNPY3,MYO7A,CYP1B1,ARHGAP24,RTN1,SLC24A4,ZFHX3,IRF8,SAT2,CREG1,TNFRSF21,CDKN2B,UGCG,SNX30,MSRB2,SERPING1,HNMT,ITPR1,PID1,ADAMTS5,AGPAT5,SLC7A7,CACNA2D3,BRE,CD1D,CD1C,CPAMD8,BRSK1,CXCR5,ZNF385A,AK4,FAIM3,FCRL1,SPRY1,TMEM144,CDCA7L,ALDH1A1,STRBP,CLMN,HTRA1,PPFIBP2,HTR3A,DDIT4,TAPT1,CD14,CNTNAP2,PARL,GNG7,KBTBD11,CD163,CD163L1,FAM20C,KCTD12,CD300LB,FZD2,CCDC149,PLCB1,KCNH8,OAF,SEPT5,FAM43A,P4HB,BTLA,INSIG1,TPCN1,LILRB4,KIAA1598,GCNT1,CARD9,TCF4,METTL9,ADARB1,ATG7,SCAMP5,NAGA,TMEM170B,ITSN1,ANG,LILRA4,C15orf38</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260">
@@ -9537,6 +10762,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>TRIM35,PTK2B,CHRNA2,EPHX2,ADRA1A</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261">
@@ -9568,6 +10798,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>EFCAB1,UBE2V2</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262">
@@ -9594,6 +10829,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>SBSPON</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263">
@@ -9620,6 +10860,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>RIPK2,OSGIN2,NBN,DECR1,CALB1</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264">
@@ -9687,6 +10932,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>TNFSF8</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266">
@@ -9713,6 +10963,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>TLR4</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267">
@@ -9759,6 +11014,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>CARD9 * (Rivas et al, 2011; PMID 21983784)</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268">
@@ -9795,6 +11055,11 @@
           <t>novel</t>
         </is>
       </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>CBWD1,C9orf66,FOXD4,DOCK8</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269">
@@ -9831,6 +11096,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>IL11RA,DNAJB5,RPP25L,NUDT2,TPM2,DCAF12,CCL27,GALT,FANCG,FAM205A,C9orf131</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270">
@@ -9867,6 +11137,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>JAK2,PLGRKT,INSL6,CD274,RCL1,ERMP1,PDCD1LG2,SLC1A1,PPAPDC2,DUSP13</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271">
@@ -9901,6 +11176,11 @@
       <c r="J271" t="inlineStr">
         <is>
           <t>known</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>AUH,STAT4,FEZ1,ARHGEF3,LINGO2,NFIL3</t>
         </is>
       </c>
     </row>
